--- a/biology/Zoologie/Hallikar/Hallikar.xlsx
+++ b/biology/Zoologie/Hallikar/Hallikar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La hallikar ou hallikaru est une race bovine indienne. Elle appartient à la sous-espèce des zébus.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une très ancienne race élevée en Inde, principalement dans les districts de Mysore, Mandhya, Bangalore, Tumkur, et Hassan, dans l'état de Karnataka[1]. Elle a contribué à la création de la race Amrit Mahal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une très ancienne race élevée en Inde, principalement dans les districts de Mysore, Mandhya, Bangalore, Tumkur, et Hassan, dans l'état de Karnataka. Elle a contribué à la création de la race Amrit Mahal.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race de grande taille. Le mâle mesure en moyenne 1,9 mètre pour 450 kg et la femelle 1,7 pour 425 kg[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race de grande taille. Le mâle mesure en moyenne 1,9 mètre pour 450 kg et la femelle 1,7 pour 425 kg.
 Elle porte une robe grise sombre.
 </t>
         </is>
@@ -575,10 +591,12 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est élevée principalement pour sa force de travail.
-Elle produit aussi un peu de lait, environ 500 kg par lactation de 280 jours[1].
+Elle produit aussi un peu de lait, environ 500 kg par lactation de 280 jours.
 </t>
         </is>
       </c>
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
